--- a/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCrmTestData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\princ\Downloads\Compressed\PageObjectModel-master_3\PageObjectModel-master\src\main\java\com\crm\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BFE1A16-8A39-44F5-A249-3320798F40FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3DB920-3693-47D1-94C1-EE2C4508EA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C64FBCA-2521-4C7E-8BBA-A5E13875F958}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>title</t>
   </si>
@@ -53,9 +54,6 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Miss.</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -68,15 +66,6 @@
     <t>SudhanshuAstro</t>
   </si>
   <si>
-    <t>Chul</t>
-  </si>
-  <si>
-    <t>Bul</t>
-  </si>
-  <si>
-    <t>Entrepreneur</t>
-  </si>
-  <si>
     <t>Mookad</t>
   </si>
   <si>
@@ -84,6 +73,15 @@
   </si>
   <si>
     <t>Pro League</t>
+  </si>
+  <si>
+    <t>Rupinder</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>R ETP.</t>
   </si>
 </sst>
 </file>
@@ -445,7 +443,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,30 +468,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -501,16 +499,28 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643FE829-2C2B-4FE3-8AD7-6DE56717439B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>